--- a/2022/Symphony/JULY/16.07.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JULY/16.07.2022/MC Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2137,7 +2137,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3079,9 +3079,6 @@
     <xf numFmtId="2" fontId="37" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="43" fillId="46" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3998,33 +3995,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="349"/>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
+      <c r="A1" s="348"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="348"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="350"/>
-      <c r="B2" s="347" t="s">
+      <c r="A2" s="349"/>
+      <c r="B2" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="350"/>
-      <c r="B3" s="348" t="s">
+      <c r="A3" s="349"/>
+      <c r="B3" s="347" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="348"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="350"/>
+      <c r="A4" s="349"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4039,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="350"/>
+      <c r="A5" s="349"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4060,7 +4057,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="350"/>
+      <c r="A6" s="349"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4072,7 +4069,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="350"/>
+      <c r="A7" s="349"/>
       <c r="B7" s="26" t="s">
         <v>47</v>
       </c>
@@ -4091,7 +4088,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="350"/>
+      <c r="A8" s="349"/>
       <c r="B8" s="26" t="s">
         <v>48</v>
       </c>
@@ -4110,7 +4107,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="350"/>
+      <c r="A9" s="349"/>
       <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
@@ -4129,7 +4126,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="350"/>
+      <c r="A10" s="349"/>
       <c r="B10" s="26" t="s">
         <v>51</v>
       </c>
@@ -4148,7 +4145,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="350"/>
+      <c r="A11" s="349"/>
       <c r="B11" s="26" t="s">
         <v>52</v>
       </c>
@@ -4167,7 +4164,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="350"/>
+      <c r="A12" s="349"/>
       <c r="B12" s="26" t="s">
         <v>53</v>
       </c>
@@ -4186,7 +4183,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="350"/>
+      <c r="A13" s="349"/>
       <c r="B13" s="26" t="s">
         <v>54</v>
       </c>
@@ -4205,7 +4202,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="350"/>
+      <c r="A14" s="349"/>
       <c r="B14" s="26" t="s">
         <v>55</v>
       </c>
@@ -4224,7 +4221,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="350"/>
+      <c r="A15" s="349"/>
       <c r="B15" s="26" t="s">
         <v>56</v>
       </c>
@@ -4243,7 +4240,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="350"/>
+      <c r="A16" s="349"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4256,7 +4253,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="350"/>
+      <c r="A17" s="349"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4269,7 +4266,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="350"/>
+      <c r="A18" s="349"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4282,7 +4279,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="350"/>
+      <c r="A19" s="349"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4295,7 +4292,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="350"/>
+      <c r="A20" s="349"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4308,7 +4305,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="350"/>
+      <c r="A21" s="349"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4321,7 +4318,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="350"/>
+      <c r="A22" s="349"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4334,7 +4331,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="350"/>
+      <c r="A23" s="349"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4347,7 +4344,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="350"/>
+      <c r="A24" s="349"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4360,7 +4357,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="350"/>
+      <c r="A25" s="349"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4373,7 +4370,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="350"/>
+      <c r="A26" s="349"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4386,7 +4383,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="350"/>
+      <c r="A27" s="349"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4399,7 +4396,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="350"/>
+      <c r="A28" s="349"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4412,7 +4409,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="350"/>
+      <c r="A29" s="349"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4425,7 +4422,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="350"/>
+      <c r="A30" s="349"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4438,7 +4435,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="350"/>
+      <c r="A31" s="349"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4451,7 +4448,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="350"/>
+      <c r="A32" s="349"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4464,7 +4461,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="350"/>
+      <c r="A33" s="349"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4477,7 +4474,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="350"/>
+      <c r="A34" s="349"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4490,7 +4487,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="350"/>
+      <c r="A35" s="349"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4503,7 +4500,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="350"/>
+      <c r="A36" s="349"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4516,7 +4513,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="350"/>
+      <c r="A37" s="349"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4529,7 +4526,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="350"/>
+      <c r="A38" s="349"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4542,7 +4539,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="350"/>
+      <c r="A39" s="349"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4555,7 +4552,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="350"/>
+      <c r="A40" s="349"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4568,7 +4565,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="350"/>
+      <c r="A41" s="349"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4581,7 +4578,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="350"/>
+      <c r="A42" s="349"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4594,7 +4591,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="350"/>
+      <c r="A43" s="349"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4607,7 +4604,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="350"/>
+      <c r="A44" s="349"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4620,7 +4617,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="350"/>
+      <c r="A45" s="349"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4633,7 +4630,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="350"/>
+      <c r="A46" s="349"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4646,7 +4643,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="350"/>
+      <c r="A47" s="349"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4659,7 +4656,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="350"/>
+      <c r="A48" s="349"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4672,7 +4669,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="350"/>
+      <c r="A49" s="349"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4685,7 +4682,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="350"/>
+      <c r="A50" s="349"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4698,7 +4695,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="350"/>
+      <c r="A51" s="349"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4711,7 +4708,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="350"/>
+      <c r="A52" s="349"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4724,7 +4721,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="350"/>
+      <c r="A53" s="349"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4737,7 +4734,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="350"/>
+      <c r="A54" s="349"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4750,7 +4747,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="350"/>
+      <c r="A55" s="349"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4762,7 +4759,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="350"/>
+      <c r="A56" s="349"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4774,7 +4771,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="350"/>
+      <c r="A57" s="349"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4786,7 +4783,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="350"/>
+      <c r="A58" s="349"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4798,7 +4795,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="350"/>
+      <c r="A59" s="349"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4810,7 +4807,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="350"/>
+      <c r="A60" s="349"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4822,7 +4819,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="350"/>
+      <c r="A61" s="349"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4834,7 +4831,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="350"/>
+      <c r="A62" s="349"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4846,7 +4843,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="350"/>
+      <c r="A63" s="349"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4858,7 +4855,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="350"/>
+      <c r="A64" s="349"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4870,7 +4867,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="350"/>
+      <c r="A65" s="349"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4882,7 +4879,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="350"/>
+      <c r="A66" s="349"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4894,7 +4891,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="350"/>
+      <c r="A67" s="349"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4906,7 +4903,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="350"/>
+      <c r="A68" s="349"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4918,7 +4915,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="350"/>
+      <c r="A69" s="349"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4930,7 +4927,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="350"/>
+      <c r="A70" s="349"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4942,7 +4939,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="350"/>
+      <c r="A71" s="349"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4954,7 +4951,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="350"/>
+      <c r="A72" s="349"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4966,7 +4963,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="350"/>
+      <c r="A73" s="349"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4978,7 +4975,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="350"/>
+      <c r="A74" s="349"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4990,7 +4987,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="350"/>
+      <c r="A75" s="349"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5002,7 +4999,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="350"/>
+      <c r="A76" s="349"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5014,7 +5011,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="350"/>
+      <c r="A77" s="349"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5026,7 +5023,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="350"/>
+      <c r="A78" s="349"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5038,7 +5035,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="350"/>
+      <c r="A79" s="349"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5050,7 +5047,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="350"/>
+      <c r="A80" s="349"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5062,7 +5059,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="350"/>
+      <c r="A81" s="349"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5074,7 +5071,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="350"/>
+      <c r="A82" s="349"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5086,7 +5083,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="350"/>
+      <c r="A83" s="349"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5143,33 +5140,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="349"/>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
+      <c r="A1" s="348"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="348"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="350"/>
-      <c r="B2" s="347" t="s">
+      <c r="A2" s="349"/>
+      <c r="B2" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="350"/>
-      <c r="B3" s="348" t="s">
+      <c r="A3" s="349"/>
+      <c r="B3" s="347" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="348"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="350"/>
+      <c r="A4" s="349"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5187,7 +5184,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="350"/>
+      <c r="A5" s="349"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5205,7 +5202,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="350"/>
+      <c r="A6" s="349"/>
       <c r="B6" s="26" t="s">
         <v>164</v>
       </c>
@@ -5223,7 +5220,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="350"/>
+      <c r="A7" s="349"/>
       <c r="B7" s="26" t="s">
         <v>190</v>
       </c>
@@ -5241,7 +5238,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="350"/>
+      <c r="A8" s="349"/>
       <c r="B8" s="26" t="s">
         <v>197</v>
       </c>
@@ -5259,7 +5256,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="350"/>
+      <c r="A9" s="349"/>
       <c r="B9" s="26" t="s">
         <v>199</v>
       </c>
@@ -5273,13 +5270,13 @@
         <f t="shared" si="0"/>
         <v>31238</v>
       </c>
-      <c r="F9" s="330" t="s">
+      <c r="F9" s="329" t="s">
         <v>200</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="350"/>
+      <c r="A10" s="349"/>
       <c r="B10" s="26" t="s">
         <v>206</v>
       </c>
@@ -5297,7 +5294,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="350"/>
+      <c r="A11" s="349"/>
       <c r="B11" s="26" t="s">
         <v>206</v>
       </c>
@@ -5315,7 +5312,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="350"/>
+      <c r="A12" s="349"/>
       <c r="B12" s="26" t="s">
         <v>207</v>
       </c>
@@ -5333,7 +5330,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="350"/>
+      <c r="A13" s="349"/>
       <c r="B13" s="26" t="s">
         <v>213</v>
       </c>
@@ -5351,7 +5348,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="350"/>
+      <c r="A14" s="349"/>
       <c r="B14" s="26" t="s">
         <v>215</v>
       </c>
@@ -5369,7 +5366,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="350"/>
+      <c r="A15" s="349"/>
       <c r="B15" s="26" t="s">
         <v>218</v>
       </c>
@@ -5387,7 +5384,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="350"/>
+      <c r="A16" s="349"/>
       <c r="B16" s="26" t="s">
         <v>219</v>
       </c>
@@ -5405,7 +5402,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="350"/>
+      <c r="A17" s="349"/>
       <c r="B17" s="26" t="s">
         <v>220</v>
       </c>
@@ -5423,7 +5420,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="350"/>
+      <c r="A18" s="349"/>
       <c r="B18" s="26" t="s">
         <v>224</v>
       </c>
@@ -5441,7 +5438,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="350"/>
+      <c r="A19" s="349"/>
       <c r="B19" s="26"/>
       <c r="C19" s="247"/>
       <c r="D19" s="249"/>
@@ -5453,7 +5450,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="350"/>
+      <c r="A20" s="349"/>
       <c r="B20" s="26"/>
       <c r="C20" s="247"/>
       <c r="D20" s="247"/>
@@ -5465,7 +5462,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="350"/>
+      <c r="A21" s="349"/>
       <c r="B21" s="26"/>
       <c r="C21" s="247"/>
       <c r="D21" s="247"/>
@@ -5477,7 +5474,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="350"/>
+      <c r="A22" s="349"/>
       <c r="B22" s="26"/>
       <c r="C22" s="247"/>
       <c r="D22" s="247"/>
@@ -5489,7 +5486,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="350"/>
+      <c r="A23" s="349"/>
       <c r="B23" s="26"/>
       <c r="C23" s="247"/>
       <c r="D23" s="247"/>
@@ -5501,7 +5498,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="350"/>
+      <c r="A24" s="349"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5513,7 +5510,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="350"/>
+      <c r="A25" s="349"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5525,7 +5522,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="350"/>
+      <c r="A26" s="349"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5537,7 +5534,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="350"/>
+      <c r="A27" s="349"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5549,7 +5546,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="350"/>
+      <c r="A28" s="349"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5561,7 +5558,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="350"/>
+      <c r="A29" s="349"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5573,7 +5570,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="350"/>
+      <c r="A30" s="349"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5585,7 +5582,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="350"/>
+      <c r="A31" s="349"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5597,7 +5594,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="350"/>
+      <c r="A32" s="349"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5609,7 +5606,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="350"/>
+      <c r="A33" s="349"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5621,7 +5618,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="350"/>
+      <c r="A34" s="349"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5633,7 +5630,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="350"/>
+      <c r="A35" s="349"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5645,7 +5642,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="350"/>
+      <c r="A36" s="349"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5657,7 +5654,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="350"/>
+      <c r="A37" s="349"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5669,7 +5666,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="350"/>
+      <c r="A38" s="349"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5681,7 +5678,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="350"/>
+      <c r="A39" s="349"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5693,7 +5690,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="350"/>
+      <c r="A40" s="349"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5705,7 +5702,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="350"/>
+      <c r="A41" s="349"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5717,7 +5714,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="350"/>
+      <c r="A42" s="349"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5729,7 +5726,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="350"/>
+      <c r="A43" s="349"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5741,7 +5738,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="350"/>
+      <c r="A44" s="349"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5753,7 +5750,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="350"/>
+      <c r="A45" s="349"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5765,7 +5762,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="350"/>
+      <c r="A46" s="349"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5777,7 +5774,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="350"/>
+      <c r="A47" s="349"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5789,7 +5786,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="350"/>
+      <c r="A48" s="349"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5801,7 +5798,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="350"/>
+      <c r="A49" s="349"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5813,7 +5810,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="350"/>
+      <c r="A50" s="349"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5825,7 +5822,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="350"/>
+      <c r="A51" s="349"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5837,7 +5834,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="350"/>
+      <c r="A52" s="349"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5849,7 +5846,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="350"/>
+      <c r="A53" s="349"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5861,7 +5858,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="350"/>
+      <c r="A54" s="349"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5873,7 +5870,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="350"/>
+      <c r="A55" s="349"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5885,7 +5882,7 @@
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="350"/>
+      <c r="A56" s="349"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -5897,7 +5894,7 @@
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="350"/>
+      <c r="A57" s="349"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -5909,7 +5906,7 @@
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="350"/>
+      <c r="A58" s="349"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -5921,7 +5918,7 @@
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="350"/>
+      <c r="A59" s="349"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -5932,7 +5929,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="350"/>
+      <c r="A60" s="349"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -5943,7 +5940,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="350"/>
+      <c r="A61" s="349"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -5954,7 +5951,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="350"/>
+      <c r="A62" s="349"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -5965,7 +5962,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="350"/>
+      <c r="A63" s="349"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -5976,7 +5973,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="350"/>
+      <c r="A64" s="349"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -5987,7 +5984,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="350"/>
+      <c r="A65" s="349"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -5998,7 +5995,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="350"/>
+      <c r="A66" s="349"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -6009,7 +6006,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="350"/>
+      <c r="A67" s="349"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -6020,7 +6017,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="350"/>
+      <c r="A68" s="349"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -6031,7 +6028,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="350"/>
+      <c r="A69" s="349"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -6042,7 +6039,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="350"/>
+      <c r="A70" s="349"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6053,7 +6050,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="350"/>
+      <c r="A71" s="349"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6064,7 +6061,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="350"/>
+      <c r="A72" s="349"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6075,7 +6072,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="350"/>
+      <c r="A73" s="349"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6086,7 +6083,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="350"/>
+      <c r="A74" s="349"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6097,7 +6094,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="350"/>
+      <c r="A75" s="349"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6108,7 +6105,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="350"/>
+      <c r="A76" s="349"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6119,7 +6116,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="350"/>
+      <c r="A77" s="349"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6130,7 +6127,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="350"/>
+      <c r="A78" s="349"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6141,7 +6138,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="350"/>
+      <c r="A79" s="349"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6153,7 +6150,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="350"/>
+      <c r="A80" s="349"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6165,7 +6162,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="350"/>
+      <c r="A81" s="349"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6177,7 +6174,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="350"/>
+      <c r="A82" s="349"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6189,7 +6186,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="350"/>
+      <c r="A83" s="349"/>
       <c r="B83" s="268"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6269,67 +6266,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="355"/>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
-      <c r="G1" s="355"/>
-      <c r="H1" s="355"/>
-      <c r="I1" s="355"/>
-      <c r="J1" s="355"/>
-      <c r="K1" s="355"/>
-      <c r="L1" s="355"/>
-      <c r="M1" s="355"/>
-      <c r="N1" s="355"/>
-      <c r="O1" s="355"/>
-      <c r="P1" s="355"/>
-      <c r="Q1" s="355"/>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="355" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
-      <c r="J2" s="356"/>
-      <c r="K2" s="356"/>
-      <c r="L2" s="356"/>
-      <c r="M2" s="356"/>
-      <c r="N2" s="356"/>
-      <c r="O2" s="356"/>
-      <c r="P2" s="356"/>
-      <c r="Q2" s="356"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="355"/>
+      <c r="J2" s="355"/>
+      <c r="K2" s="355"/>
+      <c r="L2" s="355"/>
+      <c r="M2" s="355"/>
+      <c r="N2" s="355"/>
+      <c r="O2" s="355"/>
+      <c r="P2" s="355"/>
+      <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="356" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="358"/>
-      <c r="I3" s="358"/>
-      <c r="J3" s="358"/>
-      <c r="K3" s="358"/>
-      <c r="L3" s="358"/>
-      <c r="M3" s="358"/>
-      <c r="N3" s="358"/>
-      <c r="O3" s="358"/>
-      <c r="P3" s="358"/>
-      <c r="Q3" s="359"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="357"/>
+      <c r="H3" s="357"/>
+      <c r="I3" s="357"/>
+      <c r="J3" s="357"/>
+      <c r="K3" s="357"/>
+      <c r="L3" s="357"/>
+      <c r="M3" s="357"/>
+      <c r="N3" s="357"/>
+      <c r="O3" s="357"/>
+      <c r="P3" s="357"/>
+      <c r="Q3" s="358"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6338,52 +6335,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="360" t="s">
+      <c r="A4" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="362" t="s">
+      <c r="B4" s="361" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="351" t="s">
+      <c r="C4" s="350" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="351" t="s">
+      <c r="D4" s="350" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="351" t="s">
+      <c r="E4" s="350" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="351" t="s">
+      <c r="F4" s="350" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="351" t="s">
+      <c r="G4" s="350" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="351" t="s">
+      <c r="H4" s="350" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="351" t="s">
+      <c r="I4" s="350" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="351" t="s">
+      <c r="J4" s="350" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="351" t="s">
+      <c r="K4" s="350" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="351" t="s">
+      <c r="L4" s="350" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="351" t="s">
+      <c r="M4" s="350" t="s">
         <v>214</v>
       </c>
-      <c r="N4" s="351" t="s">
+      <c r="N4" s="350" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="353" t="s">
+      <c r="O4" s="352" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="364" t="s">
+      <c r="P4" s="363" t="s">
         <v>58</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6396,22 +6393,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="361"/>
-      <c r="B5" s="363"/>
-      <c r="C5" s="352"/>
-      <c r="D5" s="352"/>
-      <c r="E5" s="352"/>
-      <c r="F5" s="352"/>
-      <c r="G5" s="352"/>
-      <c r="H5" s="352"/>
-      <c r="I5" s="352"/>
-      <c r="J5" s="352"/>
-      <c r="K5" s="352"/>
-      <c r="L5" s="352"/>
-      <c r="M5" s="352"/>
-      <c r="N5" s="352"/>
-      <c r="O5" s="354"/>
-      <c r="P5" s="365"/>
+      <c r="A5" s="360"/>
+      <c r="B5" s="362"/>
+      <c r="C5" s="351"/>
+      <c r="D5" s="351"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="351"/>
+      <c r="G5" s="351"/>
+      <c r="H5" s="351"/>
+      <c r="I5" s="351"/>
+      <c r="J5" s="351"/>
+      <c r="K5" s="351"/>
+      <c r="L5" s="351"/>
+      <c r="M5" s="351"/>
+      <c r="N5" s="351"/>
+      <c r="O5" s="353"/>
+      <c r="P5" s="364"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
       </c>
@@ -9452,11 +9449,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9471,6 +9463,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9484,8 +9481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9512,14 +9509,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="368" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="370"/>
-      <c r="C1" s="370"/>
-      <c r="D1" s="370"/>
-      <c r="E1" s="370"/>
-      <c r="F1" s="371"/>
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="370"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="142"/>
@@ -9613,14 +9610,14 @@
       <c r="CS1" s="137"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="372" t="s">
+      <c r="A2" s="371" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="373"/>
-      <c r="C2" s="373"/>
-      <c r="D2" s="373"/>
-      <c r="E2" s="373"/>
-      <c r="F2" s="374"/>
+      <c r="B2" s="372"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="373"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="142"/>
@@ -9714,14 +9711,14 @@
       <c r="CS2" s="137"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="374" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="377"/>
+      <c r="B3" s="375"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="376"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="142"/>
@@ -13096,12 +13093,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="132"/>
-      <c r="B35" s="368" t="s">
+      <c r="B35" s="367" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="368"/>
-      <c r="D35" s="368"/>
-      <c r="E35" s="368"/>
+      <c r="C35" s="367"/>
+      <c r="D35" s="367"/>
+      <c r="E35" s="367"/>
       <c r="F35" s="133"/>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -17384,7 +17381,7 @@
       <c r="A72" s="312" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="313" t="s">
+      <c r="B72" s="323" t="s">
         <v>122</v>
       </c>
       <c r="C72" s="314">
@@ -17393,7 +17390,7 @@
       <c r="D72" s="315">
         <v>44400</v>
       </c>
-      <c r="E72" s="316" t="s">
+      <c r="E72" s="317" t="s">
         <v>207</v>
       </c>
       <c r="F72" s="133"/>
@@ -17509,13 +17506,13 @@
       <c r="B73" s="313" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="314">
+      <c r="C73" s="320">
         <v>1737600335</v>
       </c>
       <c r="D73" s="315">
         <v>25000</v>
       </c>
-      <c r="E73" s="317" t="s">
+      <c r="E73" s="319" t="s">
         <v>207</v>
       </c>
       <c r="F73" s="133"/>
@@ -18237,13 +18234,13 @@
       <c r="B79" s="313" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="314">
+      <c r="C79" s="320">
         <v>1744752366</v>
       </c>
       <c r="D79" s="315">
         <v>29000</v>
       </c>
-      <c r="E79" s="317" t="s">
+      <c r="E79" s="319" t="s">
         <v>224</v>
       </c>
       <c r="F79" s="131"/>
@@ -18359,11 +18356,11 @@
       <c r="B80" s="313" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="325"/>
+      <c r="C80" s="314"/>
       <c r="D80" s="315">
         <v>15000</v>
       </c>
-      <c r="E80" s="319" t="s">
+      <c r="E80" s="317" t="s">
         <v>190</v>
       </c>
       <c r="F80" s="137"/>
@@ -18482,7 +18479,7 @@
       <c r="C81" s="314">
         <v>1761236031</v>
       </c>
-      <c r="D81" s="315">
+      <c r="D81" s="318">
         <v>7000</v>
       </c>
       <c r="E81" s="319" t="s">
@@ -19406,7 +19403,7 @@
       <c r="A89" s="312" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="313" t="s">
+      <c r="B89" s="324" t="s">
         <v>167</v>
       </c>
       <c r="C89" s="314"/>
@@ -19513,7 +19510,7 @@
       <c r="CS89" s="137"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="326" t="s">
+      <c r="A90" s="325" t="s">
         <v>221</v>
       </c>
       <c r="B90" s="313" t="s">
@@ -19623,7 +19620,7 @@
       <c r="CS90" s="137"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="326" t="s">
+      <c r="A91" s="325" t="s">
         <v>113</v>
       </c>
       <c r="B91" s="313" t="s">
@@ -22491,11 +22488,11 @@
       <c r="CS118" s="137"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="366" t="s">
+      <c r="A119" s="365" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="367"/>
-      <c r="C119" s="378"/>
+      <c r="B119" s="366"/>
+      <c r="C119" s="377"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
         <v>3066500</v>
@@ -22698,11 +22695,11 @@
       <c r="CS120" s="137"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="366" t="s">
+      <c r="A121" s="365" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="367"/>
-      <c r="C121" s="367"/>
+      <c r="B121" s="366"/>
+      <c r="C121" s="366"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
         <v>3066500</v>
@@ -33938,7 +33935,7 @@
   </sheetPr>
   <dimension ref="A1:Y208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
@@ -33958,35 +33955,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="382" t="s">
+      <c r="A1" s="381" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="384"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="383"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="388" t="s">
+      <c r="A2" s="387" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="389"/>
-      <c r="C2" s="389"/>
-      <c r="D2" s="389"/>
-      <c r="E2" s="390"/>
+      <c r="B2" s="388"/>
+      <c r="C2" s="388"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="389"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="385" t="s">
+      <c r="A3" s="384" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="387"/>
+      <c r="B3" s="385"/>
+      <c r="C3" s="385"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="386"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34009,15 +34006,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="391" t="s">
+      <c r="A4" s="390" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="392"/>
+      <c r="B4" s="391"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="393" t="s">
+      <c r="D4" s="392" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="394"/>
+      <c r="E4" s="393"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -34141,7 +34138,7 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="21.75">
-      <c r="A8" s="345"/>
+      <c r="A8" s="344"/>
       <c r="B8" s="260"/>
       <c r="C8" s="39"/>
       <c r="D8" s="235"/>
@@ -34246,7 +34243,7 @@
         <v>201405.02000000037</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="346"/>
+      <c r="D11" s="345"/>
       <c r="E11" s="242"/>
       <c r="F11" s="7"/>
       <c r="G11" s="232"/>
@@ -34299,7 +34296,7 @@
       <c r="Y12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="21.75">
-      <c r="A13" s="345"/>
+      <c r="A13" s="344"/>
       <c r="B13" s="260"/>
       <c r="C13" s="40"/>
       <c r="D13" s="39"/>
@@ -34384,7 +34381,7 @@
       <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:25" ht="21.75">
-      <c r="A16" s="345"/>
+      <c r="A16" s="344"/>
       <c r="B16" s="260"/>
       <c r="C16" s="40"/>
       <c r="D16" s="122"/>
@@ -34480,13 +34477,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="379" t="s">
+      <c r="A19" s="378" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="380"/>
-      <c r="C19" s="380"/>
-      <c r="D19" s="380"/>
-      <c r="E19" s="381"/>
+      <c r="B19" s="379"/>
+      <c r="C19" s="379"/>
+      <c r="D19" s="379"/>
+      <c r="E19" s="380"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34509,17 +34506,17 @@
       <c r="Y19" s="7"/>
     </row>
     <row r="20" spans="1:25" ht="22.5">
-      <c r="A20" s="340" t="s">
+      <c r="A20" s="339" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="341">
+      <c r="B20" s="340">
         <v>62000</v>
       </c>
-      <c r="C20" s="342"/>
-      <c r="D20" s="343" t="s">
+      <c r="C20" s="341"/>
+      <c r="D20" s="342" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="344">
+      <c r="E20" s="343">
         <v>505260</v>
       </c>
       <c r="F20" s="5"/>
@@ -34542,10 +34539,10 @@
       <c r="Y20" s="7"/>
     </row>
     <row r="21" spans="1:25" ht="21.75">
-      <c r="A21" s="327" t="s">
+      <c r="A21" s="326" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="328">
+      <c r="B21" s="327">
         <v>16110</v>
       </c>
       <c r="C21" s="39"/>
@@ -34864,17 +34861,17 @@
       <c r="Y31" s="7"/>
     </row>
     <row r="32" spans="1:25" ht="21.75">
-      <c r="A32" s="336" t="s">
+      <c r="A32" s="335" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="337">
+      <c r="B32" s="336">
         <v>15000</v>
       </c>
-      <c r="C32" s="333"/>
-      <c r="D32" s="334" t="s">
+      <c r="C32" s="332"/>
+      <c r="D32" s="333" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="335">
+      <c r="E32" s="334">
         <v>70000</v>
       </c>
       <c r="G32" s="16"/>
@@ -34892,17 +34889,17 @@
       <c r="Y32" s="7"/>
     </row>
     <row r="33" spans="1:25" ht="21.75">
-      <c r="A33" s="331" t="s">
+      <c r="A33" s="330" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="332">
+      <c r="B33" s="331">
         <v>260000</v>
       </c>
-      <c r="C33" s="333"/>
-      <c r="D33" s="334" t="s">
+      <c r="C33" s="332"/>
+      <c r="D33" s="333" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="335">
+      <c r="E33" s="334">
         <v>40000</v>
       </c>
       <c r="G33" s="16"/>
@@ -34920,17 +34917,17 @@
       <c r="Y33" s="7"/>
     </row>
     <row r="34" spans="1:25" ht="21.75">
-      <c r="A34" s="336" t="s">
+      <c r="A34" s="335" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="337">
+      <c r="B34" s="336">
         <v>29000</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="334" t="s">
+      <c r="C34" s="332"/>
+      <c r="D34" s="333" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="335">
+      <c r="E34" s="334">
         <v>38230</v>
       </c>
       <c r="G34" s="16"/>
@@ -34948,13 +34945,13 @@
       <c r="Y34" s="7"/>
     </row>
     <row r="35" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A35" s="338" t="s">
+      <c r="A35" s="337" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="339">
+      <c r="B35" s="338">
         <v>63000</v>
       </c>
-      <c r="C35" s="329"/>
+      <c r="C35" s="328"/>
       <c r="D35" s="272" t="s">
         <v>216</v>
       </c>
